--- a/HT36C/Tables/Table 1.xlsx
+++ b/HT36C/Tables/Table 1.xlsx
@@ -61,6 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#0.0"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -108,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -117,10 +120,13 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,14 +338,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
-  </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -501,35 +505,35 @@
       <c r="A4" s="3">
         <v>2.0</v>
       </c>
-      <c r="B4" s="4">
-        <v>48.6</v>
+      <c r="B4" s="5">
+        <v>48.478759765625</v>
       </c>
-      <c r="C4" s="4">
-        <v>46.4</v>
+      <c r="C4" s="5">
+        <v>46.17333984375</v>
       </c>
-      <c r="D4" s="4">
-        <v>42.8</v>
+      <c r="D4" s="5">
+        <v>43.023681640625</v>
       </c>
-      <c r="E4" s="4">
-        <v>42.9</v>
+      <c r="E4" s="5">
+        <v>42.79638671875</v>
       </c>
-      <c r="F4" s="4">
-        <v>43.2</v>
+      <c r="F4" s="5">
+        <v>42.66650390625</v>
       </c>
-      <c r="G4" s="4">
-        <v>20.8</v>
+      <c r="G4" s="5">
+        <v>20.97607421875</v>
       </c>
-      <c r="H4" s="4">
-        <v>19.5</v>
+      <c r="H4" s="5">
+        <v>20.26171875</v>
       </c>
-      <c r="I4" s="4">
-        <v>12.6</v>
+      <c r="I4" s="5">
+        <v>12.66357421875</v>
       </c>
-      <c r="J4" s="4">
-        <v>21.0</v>
+      <c r="J4" s="5">
+        <v>20.84619140625</v>
       </c>
-      <c r="K4" s="4">
-        <v>27.7</v>
+      <c r="K4" s="5">
+        <v>27.015625</v>
       </c>
       <c r="L4" s="4">
         <v>3.0</v>
@@ -6972,6 +6976,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>